--- a/src/main/resources/demo/fill/StockTrackTemplate.xlsx
+++ b/src/main/resources/demo/fill/StockTrackTemplate.xlsx
@@ -638,6 +638,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,10 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,10 +965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1041,34 +1041,34 @@
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1115,62 +1115,65 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="I6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="I6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="17" spans="14:14" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/main/resources/demo/fill/StockTrackTemplate.xlsx
+++ b/src/main/resources/demo/fill/StockTrackTemplate.xlsx
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
